--- a/class_diagram/after/service/面談予約システム_クラス図 (service).xlsx
+++ b/class_diagram/after/service/面談予約システム_クラス図 (service).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_mon\meeting_reservation_system\class_diagram\after\service\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{49E50C4B-6BAC-4D1B-A093-B0ADFD9E0266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6D010E1-B469-4D60-A015-A663B8193F39}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874381AC-2473-4588-A895-F7F867684664}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetDaysService" sheetId="2" r:id="rId1"/>
     <sheet name="MailSendService" sheetId="1" r:id="rId2"/>
+    <sheet name="GetTimesService" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -26,10 +27,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -64,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +158,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF91A5C4"/>
       <color rgb="FFFFEBC7"/>
-      <color rgb="FF91A5C4"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1118,6 +1119,487 @@
             </a:rPr>
             <a:t>mailSender : JavaMailSender</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5640DB1D-7787-4A41-A10F-4EFB0B913FCB}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>GetTimesService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C7FB0A-8675-46E3-BC3A-AA2522A243E7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B9101740-7852-494C-9DC8-60FE0E23CB21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="1181100"/>
+          <a:ext cx="2628900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository : TimesRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79CBB7D-603A-4C8C-99B1-9BB4E58B38B5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B9101740-7852-494C-9DC8-60FE0E23CB21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="1828799"/>
+          <a:ext cx="2628900" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getTimes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> ()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r List&lt;Time&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1445,29 +1927,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E5985E-1B3E-4D50-A910-8988CED7EF85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8" ht="18">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5" t="s">
         <v>3</v>
       </c>
@@ -1475,7 +1957,7 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5" t="s">
         <v>4</v>
       </c>
@@ -1483,7 +1965,7 @@
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="28.9">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>5</v>
@@ -1501,31 +1983,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" ht="15.75">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5" t="s">
         <v>3</v>
       </c>
@@ -1533,7 +2015,7 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" ht="15.75">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5" t="s">
         <v>4</v>
       </c>
@@ -1541,7 +2023,7 @@
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="28.9">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>5</v>
@@ -1553,4 +2035,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DAAE8D-46C9-4AB7-BB79-DFDA9575F8C8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/class_diagram/after/service/面談予約システム_クラス図 (service).xlsx
+++ b/class_diagram/after/service/面談予約システム_クラス図 (service).xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874381AC-2473-4588-A895-F7F867684664}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{874381AC-2473-4588-A895-F7F867684664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{208BF5F5-F37D-4289-B370-508BD026CF43}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GetDaysService" sheetId="2" r:id="rId1"/>
+    <sheet name="DaysGetService" sheetId="2" r:id="rId1"/>
     <sheet name="MailSendService" sheetId="1" r:id="rId2"/>
-    <sheet name="GetTimesService" sheetId="3" r:id="rId3"/>
+    <sheet name="TimesGetService" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,10 +27,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -65,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,7 +247,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>GetDaysService</a:t>
+            <a:t>DaysGetService</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1201,7 +1201,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>GetTimesService</a:t>
+            <a:t>TimesGetService</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1927,29 +1927,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E5985E-1B3E-4D50-A910-8988CED7EF85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5" t="s">
         <v>3</v>
       </c>
@@ -1957,7 +1959,7 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5" t="s">
         <v>4</v>
       </c>
@@ -1965,7 +1967,7 @@
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>5</v>
@@ -1984,30 +1986,30 @@
   <dimension ref="F20:O105"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5" t="s">
         <v>3</v>
       </c>
@@ -2015,7 +2017,7 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5" t="s">
         <v>4</v>
       </c>
@@ -2023,7 +2025,7 @@
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>5</v>
@@ -2041,9 +2043,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DAAE8D-46C9-4AB7-BB79-DFDA9575F8C8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/class_diagram/after/service/面談予約システム_クラス図 (service).xlsx
+++ b/class_diagram/after/service/面談予約システム_クラス図 (service).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{874381AC-2473-4588-A895-F7F867684664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{208BF5F5-F37D-4289-B370-508BD026CF43}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{874381AC-2473-4588-A895-F7F867684664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30BFA43A-A270-4D23-B6DF-0F3B28E341DA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DaysGetService" sheetId="2" r:id="rId1"/>
@@ -937,7 +937,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r String</a:t>
+            <a:t>--r Boolean</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1927,7 +1927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E5985E-1B3E-4D50-A910-8988CED7EF85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1985,7 +1985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -2043,7 +2043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DAAE8D-46C9-4AB7-BB79-DFDA9575F8C8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>

--- a/class_diagram/after/service/面談予約システム_クラス図 (service).xlsx
+++ b/class_diagram/after/service/面談予約システム_クラス図 (service).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{874381AC-2473-4588-A895-F7F867684664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30BFA43A-A270-4D23-B6DF-0F3B28E341DA}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{874381AC-2473-4588-A895-F7F867684664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B27A592D-2CA4-439D-BCF9-0DA8C59BE6DF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DaysGetService" sheetId="2" r:id="rId1"/>
@@ -937,7 +937,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>--r Boolean</a:t>
+            <a:t>--r </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
